--- a/Equipe104.xlsx
+++ b/Equipe104.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23822"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23930"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nikolay\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="94" documentId="13_ncr:1_{FA34F46B-4FBD-4D45-A4CE-032486D68F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{55E000E8-A4B2-4826-A292-A7E4D697673B}"/>
+  <xr:revisionPtr revIDLastSave="209" documentId="13_ncr:1_{FA34F46B-4FBD-4D45-A4CE-032486D68F31}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{453BDFF6-9302-435B-89EB-0BE4BA9CC5F5}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="6" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="7" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Old Sudoku" sheetId="1" state="hidden" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="197">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="199">
   <si>
     <t>Sprint 1</t>
   </si>
@@ -542,6 +542,12 @@
     <t>Annuler-Refaire</t>
   </si>
   <si>
+    <t>is not a known element' error + erreur dans la console à l'entrée dans l'éditeur + à la manipulation + crash serveur</t>
+  </si>
+  <si>
+    <t>Avertissement : Les tests buildent pas</t>
+  </si>
+  <si>
     <t>Anciennes fonctionnalités brisées</t>
   </si>
   <si>
@@ -651,7 +657,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="15">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -745,6 +751,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -2186,7 +2199,7 @@
     <xf numFmtId="9" fontId="13" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="314">
+  <cellXfs count="315">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2882,7 +2895,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="82" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2923,10 +2935,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="11" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="14" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="15" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2940,19 +2967,16 @@
     <xf numFmtId="0" fontId="8" fillId="12" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="10" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="11" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="12" borderId="38" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2967,17 +2991,11 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="79" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="92" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="95" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3837,18 +3855,18 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:11">
-      <c r="C2" s="290" t="s">
+      <c r="C2" s="289" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="290"/>
-      <c r="E2" s="291" t="s">
+      <c r="D2" s="289"/>
+      <c r="E2" s="290" t="s">
         <v>46</v>
       </c>
-      <c r="F2" s="291"/>
-      <c r="G2" s="292" t="s">
+      <c r="F2" s="290"/>
+      <c r="G2" s="291" t="s">
         <v>47</v>
       </c>
-      <c r="H2" s="292"/>
+      <c r="H2" s="291"/>
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="2"/>
@@ -4128,7 +4146,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="293" t="s">
+      <c r="G2" s="292" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4141,7 +4159,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="293"/>
+      <c r="G3" s="292"/>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="58" t="s">
@@ -4463,10 +4481,10 @@
       <c r="D27" s="161"/>
       <c r="E27" s="161"/>
       <c r="F27" s="161"/>
-      <c r="H27" s="294" t="s">
+      <c r="H27" s="293" t="s">
         <v>55</v>
       </c>
-      <c r="I27" s="294"/>
+      <c r="I27" s="293"/>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" s="52" t="s">
@@ -4819,7 +4837,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="293" t="s">
+      <c r="G2" s="292" t="s">
         <v>3</v>
       </c>
     </row>
@@ -4832,7 +4850,7 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="293"/>
+      <c r="G3" s="292"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
@@ -5206,10 +5224,10 @@
       <c r="D31" s="161"/>
       <c r="E31" s="161"/>
       <c r="F31" s="161"/>
-      <c r="H31" s="294" t="s">
+      <c r="H31" s="293" t="s">
         <v>55</v>
       </c>
-      <c r="I31" s="294"/>
+      <c r="I31" s="293"/>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" s="52" t="s">
@@ -5547,7 +5565,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:7">
-      <c r="A3" s="288"/>
+      <c r="A3" s="287"/>
       <c r="B3" s="144" t="s">
         <v>74</v>
       </c>
@@ -5597,22 +5615,22 @@
       </c>
       <c r="B5" s="152">
         <f>(Fonctionnalités!E35)</f>
-        <v>0</v>
+        <v>0.46805000000000002</v>
       </c>
       <c r="C5" s="153">
         <f>'Assurance Qualité'!D60</f>
-        <v>0</v>
+        <v>0.625</v>
       </c>
       <c r="D5" s="153">
         <f t="shared" ref="D5:D6" si="0">B5*0.6+C5*0.4 - 0.1*E5</f>
-        <v>0</v>
+        <v>0.53083000000000002</v>
       </c>
       <c r="F5" s="149">
         <v>25</v>
       </c>
       <c r="G5" s="150">
         <f>D5*F5</f>
-        <v>0</v>
+        <v>13.270750000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" thickBot="1">
@@ -5664,8 +5682,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:M60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7:K57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5673,38 +5691,38 @@
     <col min="1" max="1" width="68.7109375" style="1" customWidth="1"/>
     <col min="2" max="3" width="12.7109375" style="1" customWidth="1"/>
     <col min="4" max="9" width="12.7109375" customWidth="1"/>
-    <col min="10" max="10" width="39.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.7109375" customWidth="1"/>
+    <col min="10" max="11" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.7109375" customWidth="1"/>
     <col min="13" max="1025" width="11.42578125"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A1" s="295" t="s">
+      <c r="A1" s="300" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="295"/>
-      <c r="H1" s="282"/>
+      <c r="B1" s="300"/>
+      <c r="C1" s="300"/>
+      <c r="D1" s="300"/>
+      <c r="E1" s="300"/>
+      <c r="F1" s="300"/>
+      <c r="G1" s="300"/>
+      <c r="H1" s="281"/>
       <c r="I1" s="160"/>
     </row>
     <row r="2" spans="1:13">
       <c r="I2" s="161"/>
     </row>
     <row r="3" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A3" s="296" t="s">
+      <c r="A3" s="294" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="296"/>
-      <c r="C3" s="296"/>
-      <c r="D3" s="296"/>
-      <c r="E3" s="296"/>
-      <c r="F3" s="296"/>
-      <c r="G3" s="296"/>
-      <c r="H3" s="283"/>
+      <c r="B3" s="294"/>
+      <c r="C3" s="294"/>
+      <c r="D3" s="294"/>
+      <c r="E3" s="294"/>
+      <c r="F3" s="294"/>
+      <c r="G3" s="294"/>
+      <c r="H3" s="282"/>
       <c r="I3" s="162"/>
     </row>
     <row r="4" spans="1:13" ht="18.75">
@@ -5715,35 +5733,35 @@
       <c r="E4" s="164"/>
       <c r="F4" s="164"/>
       <c r="G4" s="164"/>
-      <c r="H4" s="284"/>
+      <c r="H4" s="283"/>
       <c r="I4" s="164"/>
     </row>
     <row r="5" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A5" s="297" t="s">
+      <c r="A5" s="301" t="s">
         <v>81</v>
       </c>
-      <c r="B5" s="298" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="298"/>
-      <c r="D5" s="299" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="299"/>
-      <c r="F5" s="300" t="s">
-        <v>2</v>
-      </c>
-      <c r="G5" s="300"/>
-      <c r="H5" s="285"/>
+      <c r="B5" s="302" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="302"/>
+      <c r="D5" s="303" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="303"/>
+      <c r="F5" s="304" t="s">
+        <v>2</v>
+      </c>
+      <c r="G5" s="304"/>
+      <c r="H5" s="284"/>
       <c r="I5" s="165"/>
-      <c r="J5" s="304" t="s">
+      <c r="J5" s="298" t="s">
         <v>82</v>
       </c>
-      <c r="K5" s="304"/>
-      <c r="L5" s="304"/>
+      <c r="K5" s="298"/>
+      <c r="L5" s="298"/>
     </row>
     <row r="6" spans="1:13" ht="18.75">
-      <c r="A6" s="297"/>
+      <c r="A6" s="301"/>
       <c r="B6" s="166" t="s">
         <v>48</v>
       </c>
@@ -5762,7 +5780,7 @@
       <c r="G6" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="H6" s="285"/>
+      <c r="H6" s="284"/>
       <c r="I6" s="165"/>
       <c r="J6" s="172" t="s">
         <v>0</v>
@@ -5776,20 +5794,23 @@
       <c r="M6" s="172"/>
     </row>
     <row r="7" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A7" s="296" t="s">
+      <c r="A7" s="294" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="296"/>
-      <c r="C7" s="296"/>
-      <c r="D7" s="296"/>
-      <c r="E7" s="296"/>
-      <c r="F7" s="296"/>
-      <c r="G7" s="296"/>
-      <c r="H7" s="283" t="s">
+      <c r="B7" s="294"/>
+      <c r="C7" s="294"/>
+      <c r="D7" s="294"/>
+      <c r="E7" s="294"/>
+      <c r="F7" s="294"/>
+      <c r="G7" s="294"/>
+      <c r="H7" s="282" t="s">
         <v>84</v>
       </c>
       <c r="I7" s="162"/>
-      <c r="J7" s="305" t="s">
+      <c r="J7" s="299" t="s">
+        <v>85</v>
+      </c>
+      <c r="K7" s="299" t="s">
         <v>85</v>
       </c>
     </row>
@@ -5803,7 +5824,9 @@
       <c r="C8" s="175">
         <v>3</v>
       </c>
-      <c r="D8" s="176"/>
+      <c r="D8" s="176">
+        <v>1</v>
+      </c>
       <c r="E8" s="175">
         <v>3</v>
       </c>
@@ -5811,11 +5834,12 @@
       <c r="G8" s="175">
         <v>3</v>
       </c>
-      <c r="H8" s="286"/>
+      <c r="H8" s="285"/>
       <c r="I8" s="178"/>
-      <c r="J8" s="305"/>
-    </row>
-    <row r="9" spans="1:13" ht="60">
+      <c r="J8" s="299"/>
+      <c r="K8" s="299"/>
+    </row>
+    <row r="9" spans="1:13" ht="45">
       <c r="A9" s="173" t="s">
         <v>87</v>
       </c>
@@ -5825,7 +5849,9 @@
       <c r="C9" s="180">
         <v>2</v>
       </c>
-      <c r="D9" s="181"/>
+      <c r="D9" s="181">
+        <v>1</v>
+      </c>
       <c r="E9" s="180">
         <v>2</v>
       </c>
@@ -5833,11 +5859,12 @@
       <c r="G9" s="180">
         <v>2</v>
       </c>
-      <c r="H9" s="286"/>
+      <c r="H9" s="285"/>
       <c r="I9" s="178"/>
-      <c r="J9" s="305"/>
-    </row>
-    <row r="10" spans="1:13" ht="60">
+      <c r="J9" s="299"/>
+      <c r="K9" s="299"/>
+    </row>
+    <row r="10" spans="1:13" ht="45">
       <c r="A10" s="183" t="s">
         <v>88</v>
       </c>
@@ -5847,7 +5874,9 @@
       <c r="C10" s="180">
         <v>3</v>
       </c>
-      <c r="D10" s="181"/>
+      <c r="D10" s="181">
+        <v>1</v>
+      </c>
       <c r="E10" s="180">
         <v>3</v>
       </c>
@@ -5855,9 +5884,10 @@
       <c r="G10" s="180">
         <v>3</v>
       </c>
-      <c r="H10" s="286"/>
+      <c r="H10" s="285"/>
       <c r="I10" s="178"/>
-      <c r="J10" s="305"/>
+      <c r="J10" s="299"/>
+      <c r="K10" s="299"/>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="184" t="s">
@@ -5869,7 +5899,9 @@
       <c r="C11" s="180">
         <v>2</v>
       </c>
-      <c r="D11" s="181"/>
+      <c r="D11" s="181">
+        <v>0</v>
+      </c>
       <c r="E11" s="180">
         <v>2</v>
       </c>
@@ -5877,9 +5909,10 @@
       <c r="G11" s="180">
         <v>2</v>
       </c>
-      <c r="H11" s="286"/>
+      <c r="H11" s="285"/>
       <c r="I11" s="178"/>
-      <c r="J11" s="305"/>
+      <c r="J11" s="299"/>
+      <c r="K11" s="299"/>
     </row>
     <row r="12" spans="1:13" ht="30">
       <c r="A12" s="185" t="s">
@@ -5891,7 +5924,9 @@
       <c r="C12" s="180">
         <v>4</v>
       </c>
-      <c r="D12" s="181"/>
+      <c r="D12" s="181">
+        <v>0</v>
+      </c>
       <c r="E12" s="180">
         <v>4</v>
       </c>
@@ -5899,9 +5934,10 @@
       <c r="G12" s="180">
         <v>4</v>
       </c>
-      <c r="H12" s="286"/>
+      <c r="H12" s="285"/>
       <c r="I12" s="178"/>
-      <c r="J12" s="305"/>
+      <c r="J12" s="299"/>
+      <c r="K12" s="299"/>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="186" t="s">
@@ -5917,7 +5953,7 @@
       </c>
       <c r="D13" s="189">
         <f>SUMPRODUCT(D8:D12,E8:E12)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="E13" s="190">
         <f>SUM(E8:E12)</f>
@@ -5931,25 +5967,27 @@
         <f>SUM(G8:G12)</f>
         <v>14</v>
       </c>
-      <c r="H13" s="286"/>
+      <c r="H13" s="285"/>
       <c r="I13" s="178"/>
-      <c r="J13" s="305"/>
+      <c r="J13" s="299"/>
+      <c r="K13" s="299"/>
     </row>
     <row r="14" spans="1:13" ht="18.399999999999999" customHeight="1">
-      <c r="A14" s="296" t="s">
+      <c r="A14" s="294" t="s">
         <v>92</v>
       </c>
-      <c r="B14" s="296"/>
-      <c r="C14" s="296"/>
-      <c r="D14" s="296"/>
-      <c r="E14" s="296"/>
-      <c r="F14" s="296"/>
-      <c r="G14" s="296"/>
-      <c r="H14" s="283" t="s">
+      <c r="B14" s="294"/>
+      <c r="C14" s="294"/>
+      <c r="D14" s="294"/>
+      <c r="E14" s="294"/>
+      <c r="F14" s="294"/>
+      <c r="G14" s="294"/>
+      <c r="H14" s="282" t="s">
         <v>84</v>
       </c>
       <c r="I14" s="162"/>
-      <c r="J14" s="305"/>
+      <c r="J14" s="299"/>
+      <c r="K14" s="299"/>
     </row>
     <row r="15" spans="1:13" ht="45">
       <c r="A15" s="183" t="s">
@@ -5961,7 +5999,9 @@
       <c r="C15" s="194">
         <v>2</v>
       </c>
-      <c r="D15" s="195"/>
+      <c r="D15" s="195">
+        <v>0</v>
+      </c>
       <c r="E15" s="194">
         <v>2</v>
       </c>
@@ -5969,9 +6009,10 @@
       <c r="G15" s="194">
         <v>2</v>
       </c>
-      <c r="H15" s="286"/>
+      <c r="H15" s="285"/>
       <c r="I15" s="178"/>
-      <c r="J15" s="305"/>
+      <c r="J15" s="299"/>
+      <c r="K15" s="299"/>
     </row>
     <row r="16" spans="1:13" ht="30">
       <c r="A16" s="183" t="s">
@@ -5983,7 +6024,9 @@
       <c r="C16" s="198">
         <v>3</v>
       </c>
-      <c r="D16" s="199"/>
+      <c r="D16" s="199">
+        <v>1</v>
+      </c>
       <c r="E16" s="198">
         <v>3</v>
       </c>
@@ -5991,11 +6034,12 @@
       <c r="G16" s="198">
         <v>3</v>
       </c>
-      <c r="H16" s="286"/>
+      <c r="H16" s="285"/>
       <c r="I16" s="178"/>
-      <c r="J16" s="305"/>
-    </row>
-    <row r="17" spans="1:10" ht="45">
+      <c r="J16" s="299"/>
+      <c r="K16" s="299"/>
+    </row>
+    <row r="17" spans="1:11" ht="45">
       <c r="A17" s="201" t="s">
         <v>95</v>
       </c>
@@ -6005,7 +6049,9 @@
       <c r="C17" s="198">
         <v>3</v>
       </c>
-      <c r="D17" s="202"/>
+      <c r="D17" s="202">
+        <v>0.75</v>
+      </c>
       <c r="E17" s="198">
         <v>3</v>
       </c>
@@ -6013,11 +6059,12 @@
       <c r="G17" s="198">
         <v>3</v>
       </c>
-      <c r="H17" s="286"/>
+      <c r="H17" s="285"/>
       <c r="I17" s="178"/>
-      <c r="J17" s="305"/>
-    </row>
-    <row r="18" spans="1:10" ht="30">
+      <c r="J17" s="299"/>
+      <c r="K17" s="299"/>
+    </row>
+    <row r="18" spans="1:11" ht="30">
       <c r="A18" s="201" t="s">
         <v>96</v>
       </c>
@@ -6027,7 +6074,9 @@
       <c r="C18" s="198">
         <v>3</v>
       </c>
-      <c r="D18" s="202"/>
+      <c r="D18" s="202">
+        <v>1</v>
+      </c>
       <c r="E18" s="198">
         <v>3</v>
       </c>
@@ -6035,11 +6084,12 @@
       <c r="G18" s="198">
         <v>3</v>
       </c>
-      <c r="H18" s="286"/>
+      <c r="H18" s="285"/>
       <c r="I18" s="178"/>
-      <c r="J18" s="305"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="J18" s="299"/>
+      <c r="K18" s="299"/>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="204" t="s">
         <v>97</v>
       </c>
@@ -6049,7 +6099,9 @@
       <c r="C19" s="198">
         <v>2</v>
       </c>
-      <c r="D19" s="206"/>
+      <c r="D19" s="206">
+        <v>0</v>
+      </c>
       <c r="E19" s="198">
         <v>2</v>
       </c>
@@ -6057,11 +6109,12 @@
       <c r="G19" s="198">
         <v>2</v>
       </c>
-      <c r="H19" s="286"/>
+      <c r="H19" s="285"/>
       <c r="I19" s="178"/>
-      <c r="J19" s="305"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="J19" s="299"/>
+      <c r="K19" s="299"/>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="207" t="s">
         <v>91</v>
       </c>
@@ -6075,7 +6128,7 @@
       </c>
       <c r="D20" s="208">
         <f>SUMPRODUCT(D15:D19,E15:E19)</f>
-        <v>0</v>
+        <v>8.25</v>
       </c>
       <c r="E20" s="209">
         <f>SUM(E15:E19)</f>
@@ -6089,27 +6142,29 @@
         <f>SUM(G15:G19)</f>
         <v>13</v>
       </c>
-      <c r="H20" s="286"/>
+      <c r="H20" s="285"/>
       <c r="I20" s="178"/>
-      <c r="J20" s="305"/>
-    </row>
-    <row r="21" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A21" s="296" t="s">
+      <c r="J20" s="299"/>
+      <c r="K20" s="299"/>
+    </row>
+    <row r="21" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A21" s="294" t="s">
         <v>98</v>
       </c>
-      <c r="B21" s="296"/>
-      <c r="C21" s="296"/>
-      <c r="D21" s="296"/>
-      <c r="E21" s="296"/>
-      <c r="F21" s="296"/>
-      <c r="G21" s="296"/>
-      <c r="H21" s="283" t="s">
+      <c r="B21" s="294"/>
+      <c r="C21" s="294"/>
+      <c r="D21" s="294"/>
+      <c r="E21" s="294"/>
+      <c r="F21" s="294"/>
+      <c r="G21" s="294"/>
+      <c r="H21" s="282" t="s">
         <v>84</v>
       </c>
       <c r="I21" s="162"/>
-      <c r="J21" s="305"/>
-    </row>
-    <row r="22" spans="1:10" ht="75" customHeight="1">
+      <c r="J21" s="299"/>
+      <c r="K21" s="299"/>
+    </row>
+    <row r="22" spans="1:11" ht="75" customHeight="1">
       <c r="A22" s="184" t="s">
         <v>99</v>
       </c>
@@ -6119,7 +6174,9 @@
       <c r="C22" s="198">
         <v>2</v>
       </c>
-      <c r="D22" s="181"/>
+      <c r="D22" s="181">
+        <v>0</v>
+      </c>
       <c r="E22" s="198">
         <v>2</v>
       </c>
@@ -6127,11 +6184,12 @@
       <c r="G22" s="198">
         <v>2</v>
       </c>
-      <c r="H22" s="286"/>
+      <c r="H22" s="285"/>
       <c r="I22" s="178"/>
-      <c r="J22" s="305"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="J22" s="299"/>
+      <c r="K22" s="299"/>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="185" t="s">
         <v>100</v>
       </c>
@@ -6141,7 +6199,9 @@
       <c r="C23" s="180">
         <v>1</v>
       </c>
-      <c r="D23" s="181"/>
+      <c r="D23" s="181">
+        <v>1</v>
+      </c>
       <c r="E23" s="180">
         <v>1</v>
       </c>
@@ -6149,11 +6209,12 @@
       <c r="G23" s="180">
         <v>1</v>
       </c>
-      <c r="H23" s="286"/>
+      <c r="H23" s="285"/>
       <c r="I23" s="178"/>
-      <c r="J23" s="305"/>
-    </row>
-    <row r="24" spans="1:10" ht="30">
+      <c r="J23" s="299"/>
+      <c r="K23" s="299"/>
+    </row>
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="185" t="s">
         <v>101</v>
       </c>
@@ -6163,7 +6224,9 @@
       <c r="C24" s="180">
         <v>1</v>
       </c>
-      <c r="D24" s="181"/>
+      <c r="D24" s="181">
+        <v>1</v>
+      </c>
       <c r="E24" s="180">
         <v>1</v>
       </c>
@@ -6171,11 +6234,12 @@
       <c r="G24" s="180">
         <v>1</v>
       </c>
-      <c r="H24" s="286"/>
+      <c r="H24" s="285"/>
       <c r="I24" s="178"/>
-      <c r="J24" s="305"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="J24" s="299"/>
+      <c r="K24" s="299"/>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="186" t="s">
         <v>91</v>
       </c>
@@ -6189,7 +6253,7 @@
       </c>
       <c r="D25" s="189">
         <f>SUMPRODUCT(D22:D24,E22:E24)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E25" s="190">
         <f>SUM(E22:E24)</f>
@@ -6203,27 +6267,29 @@
         <f>SUM(G22:G24)</f>
         <v>4</v>
       </c>
-      <c r="H25" s="286"/>
+      <c r="H25" s="285"/>
       <c r="I25" s="178"/>
-      <c r="J25" s="305"/>
-    </row>
-    <row r="26" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A26" s="296" t="s">
+      <c r="J25" s="299"/>
+      <c r="K25" s="299"/>
+    </row>
+    <row r="26" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A26" s="294" t="s">
         <v>102</v>
       </c>
-      <c r="B26" s="296"/>
-      <c r="C26" s="296"/>
-      <c r="D26" s="296"/>
-      <c r="E26" s="296"/>
-      <c r="F26" s="296"/>
-      <c r="G26" s="296"/>
-      <c r="H26" s="283" t="s">
+      <c r="B26" s="294"/>
+      <c r="C26" s="294"/>
+      <c r="D26" s="294"/>
+      <c r="E26" s="294"/>
+      <c r="F26" s="294"/>
+      <c r="G26" s="294"/>
+      <c r="H26" s="282" t="s">
         <v>103</v>
       </c>
       <c r="I26" s="162"/>
-      <c r="J26" s="305"/>
-    </row>
-    <row r="27" spans="1:10" ht="60" customHeight="1">
+      <c r="J26" s="299"/>
+      <c r="K26" s="299"/>
+    </row>
+    <row r="27" spans="1:11" ht="60" customHeight="1">
       <c r="A27" s="204" t="s">
         <v>104</v>
       </c>
@@ -6233,7 +6299,9 @@
       <c r="C27" s="212">
         <v>2</v>
       </c>
-      <c r="D27" s="202"/>
+      <c r="D27" s="202">
+        <v>0</v>
+      </c>
       <c r="E27" s="212">
         <v>2</v>
       </c>
@@ -6241,11 +6309,12 @@
       <c r="G27" s="212">
         <v>2</v>
       </c>
-      <c r="H27" s="286"/>
+      <c r="H27" s="285"/>
       <c r="I27" s="178"/>
-      <c r="J27" s="305"/>
-    </row>
-    <row r="28" spans="1:10" ht="45">
+      <c r="J27" s="299"/>
+      <c r="K27" s="299"/>
+    </row>
+    <row r="28" spans="1:11" ht="45">
       <c r="A28" s="204" t="s">
         <v>105</v>
       </c>
@@ -6255,7 +6324,9 @@
       <c r="C28" s="180">
         <v>2</v>
       </c>
-      <c r="D28" s="202"/>
+      <c r="D28" s="202">
+        <v>1</v>
+      </c>
       <c r="E28" s="180">
         <v>2</v>
       </c>
@@ -6263,11 +6334,12 @@
       <c r="G28" s="180">
         <v>2</v>
       </c>
-      <c r="H28" s="286"/>
+      <c r="H28" s="285"/>
       <c r="I28" s="178"/>
-      <c r="J28" s="305"/>
-    </row>
-    <row r="29" spans="1:10" ht="30">
+      <c r="J28" s="299"/>
+      <c r="K28" s="299"/>
+    </row>
+    <row r="29" spans="1:11" ht="30">
       <c r="A29" s="204" t="s">
         <v>106</v>
       </c>
@@ -6277,7 +6349,9 @@
       <c r="C29" s="180">
         <v>2</v>
       </c>
-      <c r="D29" s="202"/>
+      <c r="D29" s="202">
+        <v>0.75</v>
+      </c>
       <c r="E29" s="180">
         <v>2</v>
       </c>
@@ -6285,11 +6359,12 @@
       <c r="G29" s="180">
         <v>2</v>
       </c>
-      <c r="H29" s="286"/>
+      <c r="H29" s="285"/>
       <c r="I29" s="178"/>
-      <c r="J29" s="305"/>
-    </row>
-    <row r="30" spans="1:10" ht="75">
+      <c r="J29" s="299"/>
+      <c r="K29" s="299"/>
+    </row>
+    <row r="30" spans="1:11" ht="75">
       <c r="A30" s="204" t="s">
         <v>107</v>
       </c>
@@ -6299,7 +6374,9 @@
       <c r="C30" s="180">
         <v>3</v>
       </c>
-      <c r="D30" s="202"/>
+      <c r="D30" s="202">
+        <v>0.5</v>
+      </c>
       <c r="E30" s="180">
         <v>3</v>
       </c>
@@ -6307,11 +6384,12 @@
       <c r="G30" s="180">
         <v>3</v>
       </c>
-      <c r="H30" s="286"/>
+      <c r="H30" s="285"/>
       <c r="I30" s="178"/>
-      <c r="J30" s="305"/>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="J30" s="299"/>
+      <c r="K30" s="299"/>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="207" t="s">
         <v>91</v>
       </c>
@@ -6325,7 +6403,7 @@
       </c>
       <c r="D31" s="208">
         <f>SUMPRODUCT(D27:D30,E27:E30)</f>
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E31" s="190">
         <f>SUM(E27:E30)</f>
@@ -6339,27 +6417,29 @@
         <f>SUM(G27:G30)</f>
         <v>9</v>
       </c>
-      <c r="H31" s="286"/>
+      <c r="H31" s="285"/>
       <c r="I31" s="178"/>
-      <c r="J31" s="305"/>
-    </row>
-    <row r="32" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A32" s="296" t="s">
+      <c r="J31" s="299"/>
+      <c r="K31" s="299"/>
+    </row>
+    <row r="32" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A32" s="294" t="s">
         <v>108</v>
       </c>
-      <c r="B32" s="296"/>
-      <c r="C32" s="296"/>
-      <c r="D32" s="296"/>
-      <c r="E32" s="296"/>
-      <c r="F32" s="296"/>
-      <c r="G32" s="296"/>
-      <c r="H32" s="283" t="s">
+      <c r="B32" s="294"/>
+      <c r="C32" s="294"/>
+      <c r="D32" s="294"/>
+      <c r="E32" s="294"/>
+      <c r="F32" s="294"/>
+      <c r="G32" s="294"/>
+      <c r="H32" s="282" t="s">
         <v>103</v>
       </c>
       <c r="I32" s="162"/>
-      <c r="J32" s="305"/>
-    </row>
-    <row r="33" spans="1:10">
+      <c r="J32" s="299"/>
+      <c r="K32" s="299"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="183" t="s">
         <v>109</v>
       </c>
@@ -6369,7 +6449,9 @@
       <c r="C33" s="212">
         <v>1</v>
       </c>
-      <c r="D33" s="214"/>
+      <c r="D33" s="214">
+        <v>1</v>
+      </c>
       <c r="E33" s="212">
         <v>1</v>
       </c>
@@ -6377,11 +6459,12 @@
       <c r="G33" s="212">
         <v>1</v>
       </c>
-      <c r="H33" s="286"/>
+      <c r="H33" s="285"/>
       <c r="I33" s="178"/>
-      <c r="J33" s="305"/>
-    </row>
-    <row r="34" spans="1:10">
+      <c r="J33" s="299"/>
+      <c r="K33" s="299"/>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="183" t="s">
         <v>110</v>
       </c>
@@ -6391,7 +6474,9 @@
       <c r="C34" s="198">
         <v>1</v>
       </c>
-      <c r="D34" s="202"/>
+      <c r="D34" s="202">
+        <v>1</v>
+      </c>
       <c r="E34" s="198">
         <v>1</v>
       </c>
@@ -6399,11 +6484,12 @@
       <c r="G34" s="198">
         <v>1</v>
       </c>
-      <c r="H34" s="286"/>
+      <c r="H34" s="285"/>
       <c r="I34" s="178"/>
-      <c r="J34" s="305"/>
-    </row>
-    <row r="35" spans="1:10">
+      <c r="J34" s="299"/>
+      <c r="K34" s="299"/>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="201" t="s">
         <v>111</v>
       </c>
@@ -6413,7 +6499,9 @@
       <c r="C35" s="198">
         <v>3</v>
       </c>
-      <c r="D35" s="202"/>
+      <c r="D35" s="202">
+        <v>0.25</v>
+      </c>
       <c r="E35" s="198">
         <v>3</v>
       </c>
@@ -6421,11 +6509,12 @@
       <c r="G35" s="198">
         <v>3</v>
       </c>
-      <c r="H35" s="286"/>
+      <c r="H35" s="285"/>
       <c r="I35" s="178"/>
-      <c r="J35" s="305"/>
-    </row>
-    <row r="36" spans="1:10" ht="30">
+      <c r="J35" s="299"/>
+      <c r="K35" s="299"/>
+    </row>
+    <row r="36" spans="1:11" ht="30">
       <c r="A36" s="204" t="s">
         <v>112</v>
       </c>
@@ -6435,7 +6524,9 @@
       <c r="C36" s="180">
         <v>3</v>
       </c>
-      <c r="D36" s="202"/>
+      <c r="D36" s="202">
+        <v>1</v>
+      </c>
       <c r="E36" s="180">
         <v>3</v>
       </c>
@@ -6443,11 +6534,12 @@
       <c r="G36" s="180">
         <v>3</v>
       </c>
-      <c r="H36" s="286"/>
+      <c r="H36" s="285"/>
       <c r="I36" s="178"/>
-      <c r="J36" s="305"/>
-    </row>
-    <row r="37" spans="1:10">
+      <c r="J36" s="299"/>
+      <c r="K36" s="299"/>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="207" t="s">
         <v>91</v>
       </c>
@@ -6461,7 +6553,7 @@
       </c>
       <c r="D37" s="218">
         <f>SUMPRODUCT(D33:D36,E33:E36)</f>
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="E37" s="190">
         <f>SUM(E33:E36)</f>
@@ -6475,27 +6567,29 @@
         <f>SUM(G33:G36)</f>
         <v>8</v>
       </c>
-      <c r="H37" s="286"/>
+      <c r="H37" s="285"/>
       <c r="I37" s="178"/>
-      <c r="J37" s="305"/>
-    </row>
-    <row r="38" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A38" s="296" t="s">
+      <c r="J37" s="299"/>
+      <c r="K37" s="299"/>
+    </row>
+    <row r="38" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A38" s="294" t="s">
         <v>113</v>
       </c>
-      <c r="B38" s="296"/>
-      <c r="C38" s="296"/>
-      <c r="D38" s="296"/>
-      <c r="E38" s="296"/>
-      <c r="F38" s="296"/>
-      <c r="G38" s="296"/>
-      <c r="H38" s="283" t="s">
+      <c r="B38" s="294"/>
+      <c r="C38" s="294"/>
+      <c r="D38" s="294"/>
+      <c r="E38" s="294"/>
+      <c r="F38" s="294"/>
+      <c r="G38" s="294"/>
+      <c r="H38" s="282" t="s">
         <v>114</v>
       </c>
       <c r="I38" s="162"/>
-      <c r="J38" s="305"/>
-    </row>
-    <row r="39" spans="1:10" ht="45">
+      <c r="J38" s="299"/>
+      <c r="K38" s="299"/>
+    </row>
+    <row r="39" spans="1:11" ht="45">
       <c r="A39" s="201" t="s">
         <v>115</v>
       </c>
@@ -6505,7 +6599,9 @@
       <c r="C39" s="194">
         <v>1</v>
       </c>
-      <c r="D39" s="202"/>
+      <c r="D39" s="202">
+        <v>0.25</v>
+      </c>
       <c r="E39" s="194">
         <v>1</v>
       </c>
@@ -6513,11 +6609,12 @@
       <c r="G39" s="194">
         <v>1</v>
       </c>
-      <c r="H39" s="286"/>
+      <c r="H39" s="285"/>
       <c r="I39" s="178"/>
-      <c r="J39" s="305"/>
-    </row>
-    <row r="40" spans="1:10">
+      <c r="J39" s="299"/>
+      <c r="K39" s="299"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="201" t="s">
         <v>116</v>
       </c>
@@ -6527,7 +6624,9 @@
       <c r="C40" s="198">
         <v>4</v>
       </c>
-      <c r="D40" s="202"/>
+      <c r="D40" s="202">
+        <v>1</v>
+      </c>
       <c r="E40" s="198">
         <v>4</v>
       </c>
@@ -6535,11 +6634,12 @@
       <c r="G40" s="198">
         <v>4</v>
       </c>
-      <c r="H40" s="286"/>
+      <c r="H40" s="285"/>
       <c r="I40" s="178"/>
-      <c r="J40" s="305"/>
-    </row>
-    <row r="41" spans="1:10">
+      <c r="J40" s="299"/>
+      <c r="K40" s="299"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="201" t="s">
         <v>117</v>
       </c>
@@ -6549,7 +6649,9 @@
       <c r="C41" s="198">
         <v>3</v>
       </c>
-      <c r="D41" s="202"/>
+      <c r="D41" s="202">
+        <v>0.25</v>
+      </c>
       <c r="E41" s="198">
         <v>3</v>
       </c>
@@ -6557,11 +6659,12 @@
       <c r="G41" s="198">
         <v>3</v>
       </c>
-      <c r="H41" s="286"/>
+      <c r="H41" s="285"/>
       <c r="I41" s="178"/>
-      <c r="J41" s="305"/>
-    </row>
-    <row r="42" spans="1:10" ht="60">
+      <c r="J41" s="299"/>
+      <c r="K41" s="299"/>
+    </row>
+    <row r="42" spans="1:11" ht="60">
       <c r="A42" s="201" t="s">
         <v>118</v>
       </c>
@@ -6571,7 +6674,9 @@
       <c r="C42" s="198">
         <v>2</v>
       </c>
-      <c r="D42" s="202"/>
+      <c r="D42" s="202">
+        <v>0.5</v>
+      </c>
       <c r="E42" s="198">
         <v>2</v>
       </c>
@@ -6579,10 +6684,11 @@
       <c r="G42" s="198">
         <v>2</v>
       </c>
-      <c r="H42" s="286"/>
-      <c r="J42" s="305"/>
-    </row>
-    <row r="43" spans="1:10">
+      <c r="H42" s="285"/>
+      <c r="J42" s="299"/>
+      <c r="K42" s="299"/>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="201" t="s">
         <v>119</v>
       </c>
@@ -6592,7 +6698,9 @@
       <c r="C43" s="198">
         <v>2</v>
       </c>
-      <c r="D43" s="202"/>
+      <c r="D43" s="202">
+        <v>0.25</v>
+      </c>
       <c r="E43" s="198">
         <v>2</v>
       </c>
@@ -6600,11 +6708,12 @@
       <c r="G43" s="198">
         <v>2</v>
       </c>
-      <c r="H43" s="286"/>
+      <c r="H43" s="285"/>
       <c r="I43" s="178"/>
-      <c r="J43" s="305"/>
-    </row>
-    <row r="44" spans="1:10">
+      <c r="J43" s="299"/>
+      <c r="K43" s="299"/>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="201" t="s">
         <v>120</v>
       </c>
@@ -6614,7 +6723,9 @@
       <c r="C44" s="198">
         <v>3</v>
       </c>
-      <c r="D44" s="202"/>
+      <c r="D44" s="202">
+        <v>1</v>
+      </c>
       <c r="E44" s="198">
         <v>3</v>
       </c>
@@ -6622,11 +6733,12 @@
       <c r="G44" s="198">
         <v>3</v>
       </c>
-      <c r="H44" s="286"/>
+      <c r="H44" s="285"/>
       <c r="I44" s="178"/>
-      <c r="J44" s="305"/>
-    </row>
-    <row r="45" spans="1:10" ht="30">
+      <c r="J44" s="299"/>
+      <c r="K44" s="299"/>
+    </row>
+    <row r="45" spans="1:11" ht="30">
       <c r="A45" s="201" t="s">
         <v>121</v>
       </c>
@@ -6636,7 +6748,9 @@
       <c r="C45" s="198">
         <v>3</v>
       </c>
-      <c r="D45" s="202"/>
+      <c r="D45" s="202">
+        <v>1</v>
+      </c>
       <c r="E45" s="198">
         <v>3</v>
       </c>
@@ -6644,11 +6758,12 @@
       <c r="G45" s="198">
         <v>3</v>
       </c>
-      <c r="H45" s="286"/>
+      <c r="H45" s="285"/>
       <c r="I45" s="178"/>
-      <c r="J45" s="305"/>
-    </row>
-    <row r="46" spans="1:10">
+      <c r="J45" s="299"/>
+      <c r="K45" s="299"/>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="201" t="s">
         <v>122</v>
       </c>
@@ -6658,7 +6773,9 @@
       <c r="C46" s="198">
         <v>4</v>
       </c>
-      <c r="D46" s="202"/>
+      <c r="D46" s="202">
+        <v>1</v>
+      </c>
       <c r="E46" s="198">
         <v>4</v>
       </c>
@@ -6666,11 +6783,12 @@
       <c r="G46" s="198">
         <v>4</v>
       </c>
-      <c r="H46" s="286"/>
+      <c r="H46" s="285"/>
       <c r="I46" s="178"/>
-      <c r="J46" s="305"/>
-    </row>
-    <row r="47" spans="1:10" ht="60">
+      <c r="J46" s="299"/>
+      <c r="K46" s="299"/>
+    </row>
+    <row r="47" spans="1:11" ht="45">
       <c r="A47" s="204" t="s">
         <v>123</v>
       </c>
@@ -6680,7 +6798,9 @@
       <c r="C47" s="180">
         <v>10</v>
       </c>
-      <c r="D47" s="202"/>
+      <c r="D47" s="202">
+        <v>0.5</v>
+      </c>
       <c r="E47" s="180">
         <v>10</v>
       </c>
@@ -6688,11 +6808,12 @@
       <c r="G47" s="180">
         <v>10</v>
       </c>
-      <c r="H47" s="286"/>
+      <c r="H47" s="285"/>
       <c r="I47" s="178"/>
-      <c r="J47" s="305"/>
-    </row>
-    <row r="48" spans="1:10" ht="30">
+      <c r="J47" s="299"/>
+      <c r="K47" s="299"/>
+    </row>
+    <row r="48" spans="1:11" ht="30">
       <c r="A48" s="204" t="s">
         <v>124</v>
       </c>
@@ -6702,7 +6823,9 @@
       <c r="C48" s="180">
         <v>6</v>
       </c>
-      <c r="D48" s="202"/>
+      <c r="D48" s="202">
+        <v>0</v>
+      </c>
       <c r="E48" s="180">
         <v>6</v>
       </c>
@@ -6710,11 +6833,12 @@
       <c r="G48" s="180">
         <v>6</v>
       </c>
-      <c r="H48" s="286"/>
+      <c r="H48" s="285"/>
       <c r="I48" s="178"/>
-      <c r="J48" s="305"/>
-    </row>
-    <row r="49" spans="1:10">
+      <c r="J48" s="299"/>
+      <c r="K48" s="299"/>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="204" t="s">
         <v>125</v>
       </c>
@@ -6724,7 +6848,9 @@
       <c r="C49" s="180">
         <v>3</v>
       </c>
-      <c r="D49" s="202"/>
+      <c r="D49" s="202">
+        <v>1</v>
+      </c>
       <c r="E49" s="180">
         <v>3</v>
       </c>
@@ -6732,11 +6858,12 @@
       <c r="G49" s="180">
         <v>3</v>
       </c>
-      <c r="H49" s="286"/>
+      <c r="H49" s="285"/>
       <c r="I49" s="178"/>
-      <c r="J49" s="305"/>
-    </row>
-    <row r="50" spans="1:10">
+      <c r="J49" s="299"/>
+      <c r="K49" s="299"/>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="207" t="s">
         <v>91</v>
       </c>
@@ -6750,7 +6877,7 @@
       </c>
       <c r="D50" s="218">
         <f>SUMPRODUCT(D39:D49,E39:E49)</f>
-        <v>0</v>
+        <v>24.5</v>
       </c>
       <c r="E50" s="190">
         <f>SUM(E39:E49)</f>
@@ -6764,27 +6891,29 @@
         <f>SUM(G39:G49)</f>
         <v>41</v>
       </c>
-      <c r="H50" s="286"/>
+      <c r="H50" s="285"/>
       <c r="I50" s="178"/>
-      <c r="J50" s="305"/>
-    </row>
-    <row r="51" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A51" s="296" t="s">
+      <c r="J50" s="299"/>
+      <c r="K50" s="299"/>
+    </row>
+    <row r="51" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A51" s="294" t="s">
         <v>126</v>
       </c>
-      <c r="B51" s="296"/>
-      <c r="C51" s="296"/>
-      <c r="D51" s="296"/>
-      <c r="E51" s="296"/>
-      <c r="F51" s="296"/>
-      <c r="G51" s="296"/>
-      <c r="H51" s="283" t="s">
+      <c r="B51" s="294"/>
+      <c r="C51" s="294"/>
+      <c r="D51" s="294"/>
+      <c r="E51" s="294"/>
+      <c r="F51" s="294"/>
+      <c r="G51" s="294"/>
+      <c r="H51" s="282" t="s">
         <v>103</v>
       </c>
       <c r="I51" s="162"/>
-      <c r="J51" s="305"/>
-    </row>
-    <row r="52" spans="1:10" ht="30">
+      <c r="J51" s="299"/>
+      <c r="K51" s="299"/>
+    </row>
+    <row r="52" spans="1:11" ht="30">
       <c r="A52" s="219" t="s">
         <v>127</v>
       </c>
@@ -6794,7 +6923,9 @@
       <c r="C52" s="220">
         <v>2</v>
       </c>
-      <c r="D52" s="221"/>
+      <c r="D52" s="221">
+        <v>1</v>
+      </c>
       <c r="E52" s="220">
         <v>2</v>
       </c>
@@ -6802,11 +6933,12 @@
       <c r="G52" s="220">
         <v>2</v>
       </c>
-      <c r="H52" s="286"/>
+      <c r="H52" s="285"/>
       <c r="I52" s="178"/>
-      <c r="J52" s="305"/>
-    </row>
-    <row r="53" spans="1:10" ht="30">
+      <c r="J52" s="299"/>
+      <c r="K52" s="299"/>
+    </row>
+    <row r="53" spans="1:11" ht="30">
       <c r="A53" s="185" t="s">
         <v>128</v>
       </c>
@@ -6816,7 +6948,9 @@
       <c r="C53" s="180">
         <v>2</v>
       </c>
-      <c r="D53" s="223"/>
+      <c r="D53" s="223">
+        <v>1</v>
+      </c>
       <c r="E53" s="180">
         <v>2</v>
       </c>
@@ -6824,11 +6958,12 @@
       <c r="G53" s="180">
         <v>2</v>
       </c>
-      <c r="H53" s="286"/>
+      <c r="H53" s="285"/>
       <c r="I53" s="178"/>
-      <c r="J53" s="305"/>
-    </row>
-    <row r="54" spans="1:10">
+      <c r="J53" s="299"/>
+      <c r="K53" s="299"/>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="185" t="s">
         <v>129</v>
       </c>
@@ -6838,7 +6973,9 @@
       <c r="C54" s="180">
         <v>1</v>
       </c>
-      <c r="D54" s="202"/>
+      <c r="D54" s="202">
+        <v>1</v>
+      </c>
       <c r="E54" s="180">
         <v>1</v>
       </c>
@@ -6846,11 +6983,12 @@
       <c r="G54" s="180">
         <v>1</v>
       </c>
-      <c r="H54" s="286"/>
+      <c r="H54" s="285"/>
       <c r="I54" s="178"/>
-      <c r="J54" s="305"/>
-    </row>
-    <row r="55" spans="1:10" ht="120" customHeight="1">
+      <c r="J54" s="299"/>
+      <c r="K54" s="299"/>
+    </row>
+    <row r="55" spans="1:11" ht="120" customHeight="1">
       <c r="A55" s="185" t="s">
         <v>130</v>
       </c>
@@ -6860,7 +6998,9 @@
       <c r="C55" s="180">
         <v>4</v>
       </c>
-      <c r="D55" s="202"/>
+      <c r="D55" s="202">
+        <v>1</v>
+      </c>
       <c r="E55" s="180">
         <v>4</v>
       </c>
@@ -6868,11 +7008,12 @@
       <c r="G55" s="180">
         <v>4</v>
       </c>
-      <c r="H55" s="286"/>
+      <c r="H55" s="285"/>
       <c r="I55" s="178"/>
-      <c r="J55" s="305"/>
-    </row>
-    <row r="56" spans="1:10" ht="45">
+      <c r="J55" s="299"/>
+      <c r="K55" s="299"/>
+    </row>
+    <row r="56" spans="1:11" ht="45">
       <c r="A56" s="184" t="s">
         <v>131</v>
       </c>
@@ -6882,7 +7023,9 @@
       <c r="C56" s="198">
         <v>2</v>
       </c>
-      <c r="D56" s="279"/>
+      <c r="D56" s="279">
+        <v>0</v>
+      </c>
       <c r="E56" s="198">
         <v>2</v>
       </c>
@@ -6890,11 +7033,12 @@
       <c r="G56" s="198">
         <v>2</v>
       </c>
-      <c r="H56" s="287"/>
+      <c r="H56" s="286"/>
       <c r="I56" s="178"/>
-      <c r="J56" s="305"/>
-    </row>
-    <row r="57" spans="1:10">
+      <c r="J56" s="299"/>
+      <c r="K56" s="299"/>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="225" t="s">
         <v>91</v>
       </c>
@@ -6908,7 +7052,7 @@
       </c>
       <c r="D57" s="189">
         <f>SUMPRODUCT(D52:D56,E52:E56)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="E57" s="190">
         <f>SUM(E52:E56)</f>
@@ -6922,24 +7066,25 @@
         <f>SUM(G52:G56)</f>
         <v>11</v>
       </c>
-      <c r="H57" s="286"/>
+      <c r="H57" s="285"/>
       <c r="I57" s="178"/>
-      <c r="J57" s="305"/>
-    </row>
-    <row r="58" spans="1:10" ht="18.399999999999999" customHeight="1">
-      <c r="A58" s="296" t="s">
+      <c r="J57" s="299"/>
+      <c r="K57" s="299"/>
+    </row>
+    <row r="58" spans="1:11" ht="18.399999999999999" customHeight="1">
+      <c r="A58" s="294" t="s">
         <v>76</v>
       </c>
-      <c r="B58" s="296"/>
-      <c r="C58" s="296"/>
-      <c r="D58" s="296"/>
-      <c r="E58" s="296"/>
-      <c r="F58" s="296"/>
-      <c r="G58" s="296"/>
-      <c r="H58" s="283"/>
+      <c r="B58" s="294"/>
+      <c r="C58" s="294"/>
+      <c r="D58" s="294"/>
+      <c r="E58" s="294"/>
+      <c r="F58" s="294"/>
+      <c r="G58" s="294"/>
+      <c r="H58" s="282"/>
       <c r="I58" s="162"/>
     </row>
-    <row r="59" spans="1:10">
+    <row r="59" spans="1:11">
       <c r="A59" s="228" t="s">
         <v>132</v>
       </c>
@@ -6953,7 +7098,7 @@
       </c>
       <c r="D59" s="230">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>62.5</v>
       </c>
       <c r="E59" s="231">
         <f t="shared" si="0"/>
@@ -6967,33 +7112,39 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="H59" s="287"/>
+      <c r="H59" s="286"/>
       <c r="I59" s="178"/>
     </row>
-    <row r="60" spans="1:10">
+    <row r="60" spans="1:11">
       <c r="A60" s="228" t="s">
         <v>133</v>
       </c>
-      <c r="B60" s="301">
+      <c r="B60" s="295">
         <f>B59/C59</f>
         <v>0.78500000000000003</v>
       </c>
-      <c r="C60" s="301"/>
-      <c r="D60" s="302">
+      <c r="C60" s="295"/>
+      <c r="D60" s="296">
         <f>D59/E59</f>
-        <v>0</v>
-      </c>
-      <c r="E60" s="302"/>
-      <c r="F60" s="303">
+        <v>0.625</v>
+      </c>
+      <c r="E60" s="296"/>
+      <c r="F60" s="297">
         <f>F59/G59</f>
         <v>0</v>
       </c>
-      <c r="G60" s="303"/>
+      <c r="G60" s="297"/>
       <c r="H60" s="234"/>
       <c r="I60" s="234"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="F5:G5"/>
     <mergeCell ref="A58:G58"/>
     <mergeCell ref="B60:C60"/>
     <mergeCell ref="D60:E60"/>
@@ -7007,12 +7158,7 @@
     <mergeCell ref="A32:G32"/>
     <mergeCell ref="A38:G38"/>
     <mergeCell ref="A51:G51"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="K7:K57"/>
   </mergeCells>
   <dataValidations count="2">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H13 H20 H25 H31 H37 H50" xr:uid="{E7CB0F2A-F09C-42C7-B065-CB578B0E5F9C}">
@@ -7033,8 +7179,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H55"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView topLeftCell="A18" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H46" sqref="H45:H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7044,57 +7190,57 @@
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="6" max="6" width="14.140625" customWidth="1"/>
     <col min="7" max="7" width="8.5703125" customWidth="1"/>
-    <col min="8" max="8" width="39.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="103.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="1025" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75">
-      <c r="A1" s="310" t="s">
+      <c r="A1" s="305" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="310"/>
-      <c r="C1" s="310"/>
-      <c r="D1" s="310"/>
-      <c r="E1" s="310"/>
-      <c r="F1" s="310"/>
+      <c r="B1" s="305"/>
+      <c r="C1" s="305"/>
+      <c r="D1" s="305"/>
+      <c r="E1" s="305"/>
+      <c r="F1" s="305"/>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="288"/>
-      <c r="B2" s="288"/>
+      <c r="A2" s="287"/>
+      <c r="B2" s="287"/>
       <c r="C2" s="235"/>
       <c r="D2" s="235"/>
-      <c r="E2" s="288"/>
+      <c r="E2" s="287"/>
       <c r="F2" s="235"/>
     </row>
     <row r="3" spans="1:8" ht="18.75">
-      <c r="A3" s="310" t="s">
+      <c r="A3" s="305" t="s">
         <v>51</v>
       </c>
-      <c r="B3" s="310"/>
-      <c r="C3" s="310"/>
-      <c r="D3" s="310"/>
-      <c r="E3" s="310"/>
-      <c r="F3" s="310"/>
+      <c r="B3" s="305"/>
+      <c r="C3" s="305"/>
+      <c r="D3" s="305"/>
+      <c r="E3" s="305"/>
+      <c r="F3" s="305"/>
     </row>
     <row r="5" spans="1:8" ht="23.25">
-      <c r="A5" s="311" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="311"/>
-      <c r="C5" s="311"/>
-      <c r="D5" s="311"/>
-      <c r="E5" s="311"/>
-      <c r="F5" s="311"/>
+      <c r="A5" s="306" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="306"/>
+      <c r="C5" s="306"/>
+      <c r="D5" s="306"/>
+      <c r="E5" s="306"/>
+      <c r="F5" s="306"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="236" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="312"/>
-      <c r="C6" s="312"/>
-      <c r="D6" s="312"/>
-      <c r="E6" s="312"/>
-      <c r="F6" s="312"/>
+      <c r="B6" s="307"/>
+      <c r="C6" s="307"/>
+      <c r="D6" s="307"/>
+      <c r="E6" s="307"/>
+      <c r="F6" s="307"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="237" t="s">
@@ -7137,7 +7283,7 @@
       <c r="G8" t="s">
         <v>114</v>
       </c>
-      <c r="H8" s="305" t="s">
+      <c r="H8" s="299" t="s">
         <v>85</v>
       </c>
     </row>
@@ -7162,7 +7308,7 @@
       <c r="G9" t="s">
         <v>84</v>
       </c>
-      <c r="H9" s="305"/>
+      <c r="H9" s="299"/>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="240" t="s">
@@ -7185,7 +7331,7 @@
       <c r="G10" t="s">
         <v>84</v>
       </c>
-      <c r="H10" s="305"/>
+      <c r="H10" s="299"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="240" t="s">
@@ -7208,7 +7354,7 @@
       <c r="G11" t="s">
         <v>84</v>
       </c>
-      <c r="H11" s="305"/>
+      <c r="H11" s="299"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="240" t="s">
@@ -7231,7 +7377,7 @@
       <c r="G12" t="s">
         <v>84</v>
       </c>
-      <c r="H12" s="305"/>
+      <c r="H12" s="299"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="240" t="s">
@@ -7254,7 +7400,7 @@
       <c r="G13" t="s">
         <v>103</v>
       </c>
-      <c r="H13" s="305"/>
+      <c r="H13" s="299"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="240" t="s">
@@ -7277,7 +7423,7 @@
       <c r="G14" t="s">
         <v>103</v>
       </c>
-      <c r="H14" s="305"/>
+      <c r="H14" s="299"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="240" t="s">
@@ -7300,7 +7446,7 @@
       <c r="G15" t="s">
         <v>114</v>
       </c>
-      <c r="H15" s="305"/>
+      <c r="H15" s="299"/>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="240" t="s">
@@ -7323,7 +7469,7 @@
       <c r="G16" t="s">
         <v>114</v>
       </c>
-      <c r="H16" s="305"/>
+      <c r="H16" s="299"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="240" t="s">
@@ -7346,15 +7492,15 @@
       <c r="G17" t="s">
         <v>103</v>
       </c>
-      <c r="H17" s="305"/>
+      <c r="H17" s="299"/>
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="244" t="s">
         <v>147</v>
       </c>
-      <c r="B18" s="313"/>
-      <c r="C18" s="313"/>
-      <c r="D18" s="289">
+      <c r="B18" s="308"/>
+      <c r="C18" s="308"/>
+      <c r="D18" s="288">
         <f>SUM(D8:D17)</f>
         <v>100</v>
       </c>
@@ -7374,7 +7520,7 @@
       <c r="E19">
         <v>0.25</v>
       </c>
-      <c r="F19" s="281" t="s">
+      <c r="H19" s="313" t="s">
         <v>149</v>
       </c>
     </row>
@@ -7387,24 +7533,24 @@
       </c>
     </row>
     <row r="21" spans="1:8" ht="23.25" customHeight="1">
-      <c r="A21" s="306" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" s="306"/>
-      <c r="C21" s="306"/>
-      <c r="D21" s="306"/>
-      <c r="E21" s="306"/>
-      <c r="F21" s="306"/>
+      <c r="A21" s="309" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="309"/>
+      <c r="C21" s="309"/>
+      <c r="D21" s="309"/>
+      <c r="E21" s="309"/>
+      <c r="F21" s="309"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="249" t="s">
         <v>52</v>
       </c>
-      <c r="B22" s="307"/>
-      <c r="C22" s="307"/>
-      <c r="D22" s="307"/>
-      <c r="E22" s="307"/>
-      <c r="F22" s="307"/>
+      <c r="B22" s="310"/>
+      <c r="C22" s="310"/>
+      <c r="D22" s="310"/>
+      <c r="E22" s="310"/>
+      <c r="F22" s="310"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="249" t="s">
@@ -7426,172 +7572,262 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="25.5" customHeight="1">
+    <row r="24" spans="1:8">
       <c r="A24" s="249" t="s">
         <v>151</v>
       </c>
-      <c r="B24" s="251"/>
-      <c r="C24" s="251"/>
+      <c r="B24" s="251">
+        <v>0.9</v>
+      </c>
+      <c r="C24" s="251">
+        <v>0.75</v>
+      </c>
       <c r="D24" s="249">
         <v>8</v>
       </c>
       <c r="E24" s="249">
         <f t="shared" ref="E24:E34" si="1">B24*C24*D24</f>
-        <v>0</v>
+        <v>5.4</v>
       </c>
       <c r="F24" s="250"/>
+      <c r="G24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H24" s="299" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="249" t="s">
         <v>152</v>
       </c>
-      <c r="B25" s="251"/>
-      <c r="C25" s="251"/>
+      <c r="B25" s="251">
+        <v>0.9</v>
+      </c>
+      <c r="C25" s="251">
+        <v>0.25</v>
+      </c>
       <c r="D25" s="249">
         <v>16</v>
       </c>
       <c r="E25" s="249">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.6</v>
       </c>
       <c r="F25" s="250"/>
+      <c r="G25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" s="299"/>
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="249" t="s">
         <v>153</v>
       </c>
-      <c r="B26" s="251"/>
-      <c r="C26" s="251"/>
+      <c r="B26" s="251">
+        <v>1</v>
+      </c>
+      <c r="C26" s="251">
+        <v>1</v>
+      </c>
       <c r="D26" s="249">
         <v>8</v>
       </c>
       <c r="E26" s="249">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F26" s="250"/>
+      <c r="G26" t="s">
+        <v>84</v>
+      </c>
+      <c r="H26" s="299"/>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="249" t="s">
         <v>154</v>
       </c>
-      <c r="B27" s="251"/>
-      <c r="C27" s="251"/>
+      <c r="B27" s="251">
+        <v>0.9</v>
+      </c>
+      <c r="C27" s="251">
+        <v>0.75</v>
+      </c>
       <c r="D27" s="249">
         <v>6</v>
       </c>
       <c r="E27" s="249">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.0500000000000007</v>
       </c>
       <c r="F27" s="250"/>
+      <c r="G27" t="s">
+        <v>84</v>
+      </c>
+      <c r="H27" s="299"/>
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="249" t="s">
         <v>155</v>
       </c>
-      <c r="B28" s="251"/>
-      <c r="C28" s="251"/>
+      <c r="B28" s="251">
+        <v>0.65</v>
+      </c>
+      <c r="C28" s="251">
+        <v>0.75</v>
+      </c>
       <c r="D28" s="249">
         <v>8</v>
       </c>
       <c r="E28" s="249">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3.9000000000000004</v>
       </c>
       <c r="F28" s="250"/>
+      <c r="G28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H28" s="299"/>
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="249" t="s">
         <v>156</v>
       </c>
-      <c r="B29" s="251"/>
-      <c r="C29" s="251"/>
+      <c r="B29" s="251">
+        <v>0.75</v>
+      </c>
+      <c r="C29" s="251">
+        <v>0.25</v>
+      </c>
       <c r="D29" s="249">
         <v>10</v>
       </c>
       <c r="E29" s="249">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1.875</v>
       </c>
       <c r="F29" s="250"/>
+      <c r="G29" t="s">
+        <v>103</v>
+      </c>
+      <c r="H29" s="299"/>
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="249" t="s">
         <v>157</v>
       </c>
-      <c r="B30" s="251"/>
-      <c r="C30" s="251"/>
+      <c r="B30" s="251">
+        <v>1</v>
+      </c>
+      <c r="C30" s="251">
+        <v>1</v>
+      </c>
       <c r="D30" s="249">
         <v>8</v>
       </c>
       <c r="E30" s="249">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F30" s="250"/>
+      <c r="G30" t="s">
+        <v>114</v>
+      </c>
+      <c r="H30" s="299"/>
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="249" t="s">
         <v>158</v>
       </c>
-      <c r="B31" s="251"/>
-      <c r="C31" s="251"/>
+      <c r="B31" s="251">
+        <v>0.67</v>
+      </c>
+      <c r="C31" s="251">
+        <v>0.5</v>
+      </c>
       <c r="D31" s="249">
         <v>8</v>
       </c>
       <c r="E31" s="249">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2.68</v>
       </c>
       <c r="F31" s="250"/>
+      <c r="G31" t="s">
+        <v>114</v>
+      </c>
+      <c r="H31" s="299"/>
     </row>
     <row r="32" spans="1:8">
       <c r="A32" s="249" t="s">
         <v>159</v>
       </c>
-      <c r="B32" s="251"/>
-      <c r="C32" s="251"/>
+      <c r="B32" s="251">
+        <v>0.81</v>
+      </c>
+      <c r="C32" s="251">
+        <v>0.75</v>
+      </c>
       <c r="D32" s="249">
         <v>8</v>
       </c>
       <c r="E32" s="249">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="F32" s="250"/>
-    </row>
-    <row r="33" spans="1:6">
+      <c r="G32" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="299"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="249" t="s">
         <v>160</v>
       </c>
-      <c r="B33" s="251"/>
-      <c r="C33" s="251"/>
+      <c r="B33" s="251">
+        <v>0.79</v>
+      </c>
+      <c r="C33" s="251">
+        <v>0.75</v>
+      </c>
       <c r="D33" s="249">
         <v>8</v>
       </c>
       <c r="E33" s="249">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>4.74</v>
       </c>
       <c r="F33" s="250"/>
-    </row>
-    <row r="34" spans="1:6">
+      <c r="G33" t="s">
+        <v>114</v>
+      </c>
+      <c r="H33" s="299"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="249" t="s">
         <v>161</v>
       </c>
-      <c r="B34" s="251"/>
-      <c r="C34" s="251"/>
+      <c r="B34" s="251">
+        <v>0.6</v>
+      </c>
+      <c r="C34" s="251">
+        <v>1</v>
+      </c>
       <c r="D34" s="249">
         <v>12</v>
       </c>
       <c r="E34" s="249">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>7.1999999999999993</v>
       </c>
       <c r="F34" s="250"/>
-    </row>
-    <row r="35" spans="1:6">
+      <c r="G34" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="299"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="252" t="s">
         <v>147</v>
       </c>
@@ -7603,11 +7839,11 @@
       </c>
       <c r="E35" s="254">
         <f>SUM(E24:E34)/D35 -E36*D36 -E37*D37-E38*D38</f>
-        <v>0</v>
+        <v>0.46805000000000002</v>
       </c>
       <c r="F35" s="255"/>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:8">
       <c r="A36" s="256" t="s">
         <v>148</v>
       </c>
@@ -7615,44 +7851,53 @@
       <c r="D36" s="258">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="37" spans="1:6">
+      <c r="E36">
+        <v>0.5</v>
+      </c>
+      <c r="H36" s="313" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="256" t="s">
         <v>150</v>
       </c>
       <c r="D37" s="259">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="H37" s="314" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="256" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D38" s="260">
         <v>0.05</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="23.25">
-      <c r="A39" s="308" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="308"/>
-      <c r="C39" s="308"/>
-      <c r="D39" s="308"/>
-      <c r="E39" s="308"/>
-      <c r="F39" s="308"/>
-    </row>
-    <row r="40" spans="1:6">
+    <row r="39" spans="1:8" ht="23.25">
+      <c r="A39" s="311" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="311"/>
+      <c r="C39" s="311"/>
+      <c r="D39" s="311"/>
+      <c r="E39" s="311"/>
+      <c r="F39" s="311"/>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="261" t="s">
         <v>52</v>
       </c>
-      <c r="B40" s="309"/>
-      <c r="C40" s="309"/>
-      <c r="D40" s="309"/>
-      <c r="E40" s="309"/>
-      <c r="F40" s="309"/>
-    </row>
-    <row r="41" spans="1:6">
+      <c r="B40" s="312"/>
+      <c r="C40" s="312"/>
+      <c r="D40" s="312"/>
+      <c r="E40" s="312"/>
+      <c r="F40" s="312"/>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="262" t="s">
         <v>134</v>
       </c>
@@ -7672,9 +7917,9 @@
         <v>82</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
+    <row r="42" spans="1:8">
       <c r="A42" s="265" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="B42" s="266"/>
       <c r="C42" s="266"/>
@@ -7687,9 +7932,9 @@
       </c>
       <c r="F42" s="264"/>
     </row>
-    <row r="43" spans="1:6">
+    <row r="43" spans="1:8">
       <c r="A43" s="265" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B43" s="266"/>
       <c r="C43" s="266"/>
@@ -7702,9 +7947,9 @@
       </c>
       <c r="F43" s="264"/>
     </row>
-    <row r="44" spans="1:6">
+    <row r="44" spans="1:8">
       <c r="A44" s="265" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B44" s="266"/>
       <c r="C44" s="266"/>
@@ -7717,9 +7962,9 @@
       </c>
       <c r="F44" s="267"/>
     </row>
-    <row r="45" spans="1:6">
+    <row r="45" spans="1:8">
       <c r="A45" s="265" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B45" s="266"/>
       <c r="C45" s="266"/>
@@ -7732,9 +7977,9 @@
       </c>
       <c r="F45" s="264"/>
     </row>
-    <row r="46" spans="1:6">
+    <row r="46" spans="1:8">
       <c r="A46" s="265" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B46" s="266"/>
       <c r="C46" s="266"/>
@@ -7747,9 +7992,9 @@
       </c>
       <c r="F46" s="264"/>
     </row>
-    <row r="47" spans="1:6">
+    <row r="47" spans="1:8">
       <c r="A47" s="265" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B47" s="266"/>
       <c r="C47" s="266"/>
@@ -7762,9 +8007,9 @@
       </c>
       <c r="F47" s="264"/>
     </row>
-    <row r="48" spans="1:6">
+    <row r="48" spans="1:8">
       <c r="A48" s="268" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B48" s="266"/>
       <c r="C48" s="266"/>
@@ -7779,7 +8024,7 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="268" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B49" s="266"/>
       <c r="C49" s="266"/>
@@ -7794,7 +8039,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="268" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B50" s="266"/>
       <c r="C50" s="266"/>
@@ -7809,7 +8054,7 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="268" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B51" s="266"/>
       <c r="C51" s="266"/>
@@ -7856,24 +8101,25 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="277" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D55" s="260">
         <v>0.05</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="11">
+    <mergeCell ref="H8:H17"/>
+    <mergeCell ref="A21:F21"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="B40:F40"/>
+    <mergeCell ref="H24:H34"/>
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="B6:F6"/>
     <mergeCell ref="B18:C18"/>
-    <mergeCell ref="H8:H17"/>
-    <mergeCell ref="A21:F21"/>
-    <mergeCell ref="B22:F22"/>
-    <mergeCell ref="A39:F39"/>
-    <mergeCell ref="B40:F40"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B42:B51 B8:B18" xr:uid="{00000000-0002-0000-0700-000000000000}">
@@ -7929,7 +8175,7 @@
       <c r="F2" s="51" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="293" t="s">
+      <c r="G2" s="292" t="s">
         <v>3</v>
       </c>
     </row>
@@ -7942,11 +8188,11 @@
       <c r="D3" s="55"/>
       <c r="E3" s="56"/>
       <c r="F3" s="57"/>
-      <c r="G3" s="293"/>
+      <c r="G3" s="292"/>
     </row>
     <row r="4" spans="1:7" ht="30">
       <c r="A4" s="58" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B4" s="59"/>
       <c r="C4" s="60"/>
@@ -7972,7 +8218,7 @@
     </row>
     <row r="6" spans="1:7" ht="30">
       <c r="A6" s="65" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="67"/>
@@ -7985,7 +8231,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="65" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="B7" s="66"/>
       <c r="C7" s="67"/>
@@ -7998,7 +8244,7 @@
     </row>
     <row r="8" spans="1:7" ht="30">
       <c r="A8" s="65" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B8" s="66"/>
       <c r="C8" s="67"/>
@@ -8011,7 +8257,7 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="65" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B9" s="66"/>
       <c r="C9" s="67"/>
@@ -8024,7 +8270,7 @@
     </row>
     <row r="10" spans="1:7" ht="30">
       <c r="A10" s="65" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B10" s="66"/>
       <c r="C10" s="67"/>
@@ -8037,7 +8283,7 @@
     </row>
     <row r="11" spans="1:7" ht="30">
       <c r="A11" s="65" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B11" s="66"/>
       <c r="C11" s="67"/>
@@ -8050,7 +8296,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="65" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B12" s="66"/>
       <c r="C12" s="67"/>
@@ -8063,7 +8309,7 @@
     </row>
     <row r="13" spans="1:7" ht="30">
       <c r="A13" s="65" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B13" s="66"/>
       <c r="C13" s="67"/>
@@ -8076,7 +8322,7 @@
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="65" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="B14" s="66"/>
       <c r="C14" s="67"/>
@@ -8089,7 +8335,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" s="65" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B15" s="66"/>
       <c r="C15" s="67"/>
@@ -8102,7 +8348,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" s="65" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B16" s="66"/>
       <c r="C16" s="67"/>
@@ -8115,7 +8361,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="65" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B17" s="66"/>
       <c r="C17" s="67"/>
@@ -8128,7 +8374,7 @@
     </row>
     <row r="18" spans="1:7" ht="30">
       <c r="A18" s="65" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="B18" s="66"/>
       <c r="C18" s="67"/>
@@ -8141,7 +8387,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="65" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B19" s="66"/>
       <c r="C19" s="67"/>
@@ -8154,7 +8400,7 @@
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="65" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B20" s="66"/>
       <c r="C20" s="67"/>
@@ -8167,7 +8413,7 @@
     </row>
     <row r="21" spans="1:7" ht="45">
       <c r="A21" s="65" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B21" s="66"/>
       <c r="C21" s="67"/>
@@ -8180,7 +8426,7 @@
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="65" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B22" s="66"/>
       <c r="C22" s="67"/>
@@ -8193,7 +8439,7 @@
     </row>
     <row r="23" spans="1:7" ht="30">
       <c r="A23" s="65" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B23" s="66"/>
       <c r="C23" s="67"/>
@@ -8206,7 +8452,7 @@
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="65" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B24" s="66"/>
       <c r="C24" s="67"/>
@@ -8219,7 +8465,7 @@
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="65" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B25" s="66"/>
       <c r="C25" s="67"/>
@@ -8232,7 +8478,7 @@
     </row>
     <row r="26" spans="1:7" ht="30">
       <c r="A26" s="65" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B26" s="66"/>
       <c r="C26" s="67"/>
@@ -8245,7 +8491,7 @@
     </row>
     <row r="27" spans="1:7" ht="30">
       <c r="A27" s="72" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B27" s="73"/>
       <c r="C27" s="74"/>
@@ -8342,10 +8588,10 @@
       <c r="D33" s="161"/>
       <c r="E33" s="161"/>
       <c r="F33" s="161"/>
-      <c r="H33" s="294" t="s">
+      <c r="H33" s="293" t="s">
         <v>55</v>
       </c>
-      <c r="I33" s="294"/>
+      <c r="I33" s="293"/>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" s="52" t="s">
@@ -8594,7 +8840,7 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="91" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B50" s="138">
         <f>(B$31+B$47)/2</f>
